--- a/NISPA/results/CIFAR10_0.xlsx
+++ b/NISPA/results/CIFAR10_0.xlsx
@@ -376,15 +376,15 @@
         <v>87.15724127386972</v>
       </c>
       <c r="C2">
-        <v>95.5</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3">
-        <v>90.45084971874738</v>
+        <v>60.39558454088796</v>
       </c>
       <c r="C3">
-        <v>83.95</v>
+        <v>83.15000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -392,23 +392,23 @@
         <v>83.45653031794291</v>
       </c>
       <c r="C4">
-        <v>87.3</v>
+        <v>87.25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5">
-        <v>60.39558454088796</v>
+        <v>79.38926261462366</v>
       </c>
       <c r="C5">
-        <v>96</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6">
-        <v>44.77357683661734</v>
+        <v>34.54915028125264</v>
       </c>
       <c r="C6">
-        <v>93.65000000000001</v>
+        <v>93.3</v>
       </c>
     </row>
   </sheetData>
